--- a/Schematic-PCB/Kicker-20240411/XL6009 抵抗値計算.xlsx
+++ b/Schematic-PCB/Kicker-20240411/XL6009 抵抗値計算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\寺田侑史\OneDrive\デスクトップ\GitHub\2024-TOINIOT2\Schematic-PCB\Kicker-20240411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7848858C-225F-42A9-8B08-35E4BF50D6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24381288-45B9-40A8-85A8-D333B8D4FA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,53 +407,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>270</v>
+        <v>270000</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>8.5</v>
+        <v>10000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="1">
+        <f>B1/B3</f>
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <f>_xlfn.FLOOR.MATH(1.25*(B1+B3)/B3, 0.1)</f>
-        <v>40.900000000000006</v>
+        <f>_xlfn.FLOOR.MATH(1.25+1.25*D3, 0.1)</f>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -464,13 +469,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1">
         <f>_xlfn.FLOOR.MATH(1.25*B1/(B9-1.25),0.01)</f>
-        <v>8.51</v>
+        <v>8511.9699999999993</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
